--- a/27 задание/05 задание/27_A_18314.xlsx
+++ b/27 задание/05 задание/27_A_18314.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Репетиторство\Всё с Лёней\Варианты\Вариант №4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ege\27 задание\05 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77486A31-5422-475E-9752-9B9B4EDBD3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,12 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,6 +71,6880 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>8.2290174887724596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.0075489577846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.725260180226501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0762258945983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.097685468053001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.266607650617999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.447080816724299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.237294679275799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.198200174007301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.272551100645401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.707847432366901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.8209740105207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.590077712148798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5386407360373</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7307126834525599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.632182270287203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.621274829534901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.61158581384379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.25603141257875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.195962997161203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1652213389344999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.159534421044199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.2102442438</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.859119998790201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.7020529193165</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.425206315856698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.8139643497191</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.583555236584999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.070331555318599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.74763536687803</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.397366940021399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.169754918010398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.922026724193799</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.8676251881203</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.856230042245102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.695558910120099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6707940724641297</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.387747138296898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.791487218433403</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.953186802556399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28.089996550227099</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.353067206120899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.3373986125850399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5180533783697898</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.4354446746615</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.1631607707259297</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.6895173155231697</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.904282473604599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.333226110507397</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.384927844555701</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.6031991193423</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3834700013688201</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.8648902204147895</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.934650132599302</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.880282490858001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8683542430058599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.560279969701597</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41.592727948328204</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.18494387594831</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.5575816296256404</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.764826971664597</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34.282013001298999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17.1067950641512</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.540840251320599</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.3734675501289599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41.489963466927797</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.07628136973615</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31.406775794990399</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.246788732873</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36.7816142199732</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42.111291733618899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.834920485846801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44.280483136825701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41.937365867611902</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.4228367393018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.481506079055599</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.0005293610237693</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.802951944545301</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25.745361427369399</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.0023025141044</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38.511908100985899</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>36.8635314523547</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11.33408020339</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22.361416126889399</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36.629164455720101</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26.4783008434684</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.417974243811699</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41.867062603420798</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.546583057006401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.129616041267703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28.941204312075801</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.4799230117329</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.066014089497202</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.2197661729173</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.312659842820999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11.341278441616</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36.245235302932201</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40.317157791205197</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25.9745766002906</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>26.8450152779807</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19.944150257264699</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36.9108899699049</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.6927167093756701</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.1682080550090408</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.2183817407075104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.2318749904241502</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.3831671842109401</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>27.194664556129698</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>37.152624401511702</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41.599577793238097</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>13.503611298496001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.8094278577195002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.5805983948077298</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.8645615192359299</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42.115899796470401</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12.901226229298601</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.0601532264218099</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>28.615638619824502</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28.446870910268</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.059715536849701</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.1665450433300801</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>43.141411839902901</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.9426992368535601</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>37.3260540461077</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35.031051476169999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.63683589225466</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.6461853273894196</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>29.3536244820123</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>30.766094710860401</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>38.929496048211902</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>12.397715422324501</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21.8221514069132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.9324852551847602</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>38.9261257726059</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>15.7291996379409</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33.778376346259201</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.19011265974971</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22.285631600817599</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34.603876650187999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.1171923809737</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18.188186873963598</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>15.497821539851399</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41.216545595037601</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41.732984109480199</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>28.538106348350802</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>32.031118858674297</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.0115226443502792</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44.003282707089298</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44.521335211573799</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.7327534326619194</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30.675764476654301</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>30.460411985191001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.6540495183216</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12.046010025963101</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10.726398355743299</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41.687916121641102</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42.537205699429002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>29.5317821668359</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>14.0746988994237</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>28.761794404407102</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.9235035368262396</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>28.564899879590602</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>19.140400669687601</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>26.332059512660901</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15.257257328840099</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42.865169316467401</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.039062660714301</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.5322303647004</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44.012668391018998</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10.391401919020501</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>39.291334845867802</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41.438879974518599</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>36.421487414854901</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44.473279664760597</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42.527034331135802</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.6250398583618892</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42.431632397455502</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10.844468505531401</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>37.3178705219783</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42.477845370020802</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>28.232585374339902</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>31.412705806514399</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.6041620765312103</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>25.065705671443201</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11.5585826357086</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.6188518925364899</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>33.384127867037698</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>21.089012298523901</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>29.073390363308</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42.529606994817001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>36.724926349885699</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>29.977734264232801</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.0758766618718205</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.5184310879870697</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42.040651461872898</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.3734601900460905</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>11.0818114334689</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>43.253650247643598</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>11.7425629197886</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6.7698122249903099</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.6279530574570602</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>30.367177851091</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10.239386096852501</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>43.438565688299597</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>17.4971718468997</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>35.535493432809702</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25.023784728517999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>22.1575177194152</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>41.262664691803799</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6.2556068519635897</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.2984936923204007</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>29.1982300520209</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>17.299236510276799</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>31.0707678696395</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>37.946335830332899</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.9127395767678</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>21.173525067448601</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>19.8919365084049</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>22.380578371022001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.7836421090460899</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>32.727967561191399</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9.0536716474458991</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.0736594022441999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.2189616689888103</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>16.523543184176201</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>43.486368924257</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>38.017350632590102</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>29.379917694930299</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>36.637525759644902</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5.5387545243031804</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>41.491696472789201</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>36.139203097710599</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>38.042815910913802</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>44.387175429737702</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>28.553714781462102</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>30.452362368536001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>21.994942593095299</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>43.252861894971304</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>11.790390747277799</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6.20339936766511</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>41.380284868779498</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>35.516198653772499</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>7.0629680121405096</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>35.341824889326503</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>20.4906721708882</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>25.3328856219591</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42.380858102813797</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>28.588983004358301</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24.876486668098799</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>31.470361289255699</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>21.8314592435793</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>24.746197529445599</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.42399753599903</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>38.689513435328898</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>15.367981343755</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>17.3637585537722</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>30.5784699819671</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>36.652608575323697</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>37.9102068939075</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8.6747351255742302</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>18.742361399835801</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>12.291247092311799</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42.4128824931148</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>40.707624334056497</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>12.383985097780901</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.55938656271009</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>36.856200198645503</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>42.521891765173898</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10.907201745187701</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>6.9927991151240398</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>26.248282707759799</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>18.7540230153562</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>7.6895337661905696</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>41.953210355077502</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>17.9503066328299</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3.9360516967407699</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>34.305343005952601</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>38.8665010253087</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>16.976878082301099</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>21.336163090070599</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>16.7021779060012</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>35.846699662799701</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4.8899106928577698</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.7131655723536698</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>16.146433860406301</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>11.166720625859799</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>29.3669749949044</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>10.5200283908224</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>19.2745775995967</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>7.1483393793019401</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>34.9263513155908</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>6.5022995828817098</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>33.759328125803002</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>5.9046735650954396</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>32.1349628877987</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>15.795068209950299</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>38.184214584850899</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>29.1450205974003</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>12.694892190812</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>36.831425141328303</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>36.397981592930499</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>35.2420341028647</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>26.5235898030535</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>25.684701355381701</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>4.8683925101105796</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>28.062969436382801</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>8.8640167214721295</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>4.4238573028205002</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>21.2471327445996</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>31.554536720478499</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>41.076056342125199</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>12.9366276974012</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>13.609192152918499</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>6.03190590027212</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>17.593671730496901</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>17.821862217553999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>19.3321498811355</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>31.532518219983999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>30.840868719919399</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>7.2346998441007999</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>43.4000311013626</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>42.176420968394098</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>34.817965035552902</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4.6663605427870802</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>34.930232159709298</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>36.4966649536522</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>19.4174302314117</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>43.291869834737</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>40.374453560373396</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>20.189571669749899</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>29.889087355026899</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>4.2206773014662398</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>30.8864670461824</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>18.068930489071999</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>44.721698628538498</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>35.869921922606302</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>24.873698425890201</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>37.1859769522028</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>10.996829825721401</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>21.601257666289801</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6.1368868402737196</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>37.939459516293098</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>29.334431006702399</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>19.412296855259999</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>31.414475023912701</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>33.716378619613799</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>27.9853013812047</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>11.5835778962861</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>44.413563984632397</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>34.370437697253401</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>30.360826090239801</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>38.847073911322298</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>17.725077302919299</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>29.9017737850393</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>35.506953394364601</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>40.914638710190196</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>38.038172918393002</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>31.987935055708601</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>5.2970426149876397</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>36.577409656302798</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>35.5099950091452</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>9.6946551220898698</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>21.685851338227</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>37.074185834652603</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>14.161523379531401</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>27.403525078714001</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44.194130162835997</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>7.9343536293301096</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>38.034423970860502</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>28.319315803859698</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>21.324293472945499</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>8.1133702211966607</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>42.275101749256798</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>12.1067069341933</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>40.948176595737799</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>40.842728211138201</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>40.974678141892603</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>26.687609179258398</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>17.337909749763</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>36.234002879163</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>40.395224012602199</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>8.4036570541263202</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>11.9382878558946</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>25.667672157287601</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>25.9431826614648</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>42.570555649486501</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>15.7507348464337</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>20.6267292762723</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>25.694057290329098</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>42.897009318239803</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>21.0752490229819</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>6.3424094491966398</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5.1111414272766904</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2.9970336215027298</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>11.760446436242001</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>5.9099810487323596</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>22.1341501750248</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>34.817548087863301</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>10.055289330525399</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>32.488304303644803</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>15.6114581338575</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>18.2868464661491</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>18.872218318909699</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>36.9523202322152</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>42.103226799420298</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>7.1352223481433104</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>41.340459633532099</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>2.8439168539442599</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>9.0859751901065398</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>9.24531316776838</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>12.9625866530395</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>37.045032007692697</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>21.828409388246602</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2.7183679987997902</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2.9693523212714399</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>17.458342169700899</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>34.866316408446799</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>41.714538562168698</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>20.789409885908501</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>5.9455623853965696</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>19.2427568877096</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>14.662187131752299</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>16.048733285663999</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>27.843802555989601</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>42.210344702655902</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>34.237463437023401</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>35.174241616657497</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>24.750236445471099</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>25.151674636539301</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>6.3243536821585602</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>3.2190278532009602</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>7.3846467123050399</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>19.574877382069999</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>25.268288205413</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>21.657306654590698</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>43.056909099090198</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>30.103645474701199</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>19.0751562489489</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>16.282228038291802</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>16.073124461692199</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>33.934419859722702</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>31.340969559548899</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>38.760352746571002</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>12.3546265831755</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>30.435038147210701</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>35.963997009863697</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>32.745082850303</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>42.0356657830716</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>16.591935075279501</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>34.006809731965198</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>16.180937020747599</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>17.841255537466999</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>15.793310723670601</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>27.698607943309302</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>8.9686227999448107</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>42.190152485098601</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>40.465491366348701</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>42.443191822064598</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>32.314275688877203</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>29.229539563145</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>14.127463547800099</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>38.951324387157698</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>38.645609133147701</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>15.344743420431</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>14.915471136501999</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>40.474014715875697</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>15.7670547678135</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>8.2258537750381802</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>36.964136934494498</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>3.19262586701424</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>6.5990938223097801</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>42.784526774222797</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>34.727437151493604</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>5.4753542164703202</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>29.022381427594802</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>42.536829660770799</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>15.4657132300055</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>39.850443339160698</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>34.790263133113903</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>16.577857185288</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>4.8775528580324501</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>38.916945486650498</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>13.129109108064601</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>34.038170718375497</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>31.189128352943701</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>36.165453951814499</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>35.6626698070705</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>25.996312255789402</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>30.2668192318203</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>28.3492014836058</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>3.6793285024152902</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>31.5057359503658</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>39.714574551725597</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>19.043746949196599</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>37.396794689607397</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>35.3436067366709</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>43.604384089624801</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>33.787759532917001</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>15.3528331459156</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>11.274234766027201</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>30.277499244437301</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>38.219223477965599</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>30.6457023423606</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>9.5180262518042902</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>27.724521997433801</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>27.493694837828901</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>5.1256628975064897</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2.6593394600789901</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>39.342047330206199</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>28.269156424628399</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>3.0521114882369398</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>9.9072260227556797</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>36.1147263110281</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>5.5606149926441502</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>27.849041844045001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>26.177040355557398</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>21.8003769872638</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>12.1396884457608</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>41.262101974181</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>38.881908051432397</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>3.99539321249526</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>10.3518272577191</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44.025329326379598</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>42.048547976266498</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>7.5477691936187599</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>13.9054514697072</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>25.5854284107679</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>7.2341165874214397</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>29.6203050936262</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>20.228976653625399</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>32.938882427465501</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>38.544902848487197</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>4.1852942843137999</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>4.9329332772072796</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>43.1195394831417</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>5.38934346593709</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>39.381675176249502</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>30.9677094796128</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>40.531284082636198</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>6.9510586470334896</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>14.187126847244301</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>3.0525179259631399</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>22.111106543712701</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>21.199823428501201</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>37.980525648153197</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>15.1876679408344</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>25.855565597018899</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>38.908519210751997</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>41.918958339438298</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>9.9049487414914097</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>41.806589307326497</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>5.5021065188015896</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>3.6371261795333401</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>24.988465584578499</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>21.679744519921499</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>37.810672541290202</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>33.643916646222301</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>3.4007325146080598</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>4.9747895474841597</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>42.705650327265097</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>9.7324030416834599</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>31.1632578853709</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>36.612054409295602</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>17.320676653758301</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>35.060547926987397</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>6.0788511731732804</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>41.678801113416199</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>41.739674304515802</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>40.7562494287302</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>28.193346958458399</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>10.570146413306601</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>7.2135352739138998</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>41.439768738629098</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>8.6594138417591893</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>10.090549799837101</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>38.929982591570997</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>43.910045226873002</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>29.583085357886699</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>31.974568293702301</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>26.680322801062999</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>5.5734327694715402</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>4.9480115353591296</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>32.019330177839898</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>6.7161514702224103</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>40.875605340400703</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>37.181128945739097</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>35.312557568555</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>43.344123363131899</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>33.175632941140996</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>6.92551847427145</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>21.361792030073101</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>32.727981765020601</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>27.397987300630199</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>16.9678563431636</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>19.066098734698301</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>15.145650264839601</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>6.33297790577772</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>26.606512521326501</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>26.743040587055599</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>7.4369887880589403</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>13.5661889440095</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>40.6102148590697</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>5.2624642629573</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>18.012474506992099</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>28.0222335443551</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>12.3030851337936</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>26.8812924501852</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>37.770006658146002</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>14.1839246235971</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>41.6789333954166</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>36.791172052947601</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>4.9698612231982002</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>25.065620351071999</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>42.839710131220599</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>38.466199072801302</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>43.509633514471602</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>13.1146794164663</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>44.0496935733646</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>36.299356976788602</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>14.300681644838001</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>7.9164580991939699</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>15.1811460852224</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>32.9784517028545</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>8.6772236401589193</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>4.6835241294837999</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>14.2054806538882</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>31.143251558695798</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>32.883438788295301</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>17.5119107000837</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>33.064177311480996</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>18.813342761796701</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>29.092981629048101</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>34.799436756288102</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>32.856651569893003</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>7.0473470152891</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>32.027482311439698</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>25.5198915991771</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>15.611686730947</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>13.4911103324146</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>25.459116905821102</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>36.274375955109598</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>11.0261495064074</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>7.27248912969283</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>44.213751668255597</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>30.357624517605501</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>42.8924371376038</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>40.694171481491402</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>9.2631230184327205</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>21.676618835431</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>8.4469301353921793</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>26.540973576041999</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>30.6586709537779</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>31.4416469989687</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>29.8778289063644</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>16.497304056724001</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>25.419224179296499</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>38.758128555369296</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>36.618405459958197</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>16.567845999023199</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>34.619703355519</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>20.018216129691599</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>33.918303494521702</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>13.4016552059368</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>17.621102278323601</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>6.6667972833422304</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>10.896384625145901</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>13.854311832402001</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>9.6279333134789393</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>4.8361014314475703</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>28.123381091747898</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>44.171688580872797</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>16.459717555585101</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>4.7838013899462304</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>16.5962589235473</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>9.4813830040254494</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>5.2607042395983798</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>37.425543566428502</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>31.853317844930402</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>17.5338789995863</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>31.381657002345801</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>28.723831292982499</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>12.5764095474055</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>43.908589111938099</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>34.034061140682198</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>40.380239141529202</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>41.097313169401303</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>10.8763406874825</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>28.384574931038401</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>18.8369745283842</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>41.258091705031902</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>21.908444716155302</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>3.0634140149143301</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>40.919420714717702</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>32.259820571945198</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>4.6531072895767203</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>5.9414881302700202</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>35.273194274561803</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>37.351922611995697</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>41.826306896089797</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>5.5549281852035701</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>27.414821519174101</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>34.306731492009497</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>37.535956711627001</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>29.266289993457502</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>15.6226352453702</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>34.8206442618986</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>40.9021423430003</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>39.742841003290899</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>38.033322826935503</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>25.121150145638499</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>5.0010696426766899</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>29.909095978173099</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>27.668345147328001</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>27.542306719029401</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>18.885977021148999</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>3.3313248582836001</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>13.279592704241599</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>34.954718795787002</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>10.6361859867313</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>39.946220222487803</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>7.3964513596182799</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>32.608537196355201</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>27.776811457985399</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>44.143402216084503</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>40.5717582243972</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>3.8269173396178799</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>28.070497306516899</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>8.2270979989525497</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>30.3060813883633</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>29.225588676026799</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>35.149571757620997</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>30.8539075993654</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>41.3905127789875</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>14.7866256589559</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>39.944200539995897</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>11.604143399010701</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>16.7989985068042</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>25.479296895026302</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>42.6968115020602</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>11.749847433060101</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>9.9245407688287699</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>24.9088119033966</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>2.9808763897789099</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>41.513799169267998</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>38.774234330925403</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>10.320413955046201</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>12.524600157379201</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>33.7249928032738</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>36.173342690103802</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>16.2222196088121</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>16.679482641228201</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>20.910696819692301</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>44.243901869895801</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>34.185468179619001</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>4.0807335568082204</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>36.361793852526198</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>18.547258664831801</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>40.951523040944103</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>7.4058482436327502</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>18.2864090024528</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>6.5123980826011003</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>8.2141936293311399</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>7.7952840619744999</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>34.432324950747798</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>11.131896584561099</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>25.664818602284001</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>16.649771475762702</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>40.918113092495602</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>16.074949993488101</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>34.2933800514922</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>35.2781585281733</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>9.8849148313094499</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>31.981409775824599</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>12.7456797804535</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>44.667013696138902</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>13.290946809543399</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>5.7523542232619702</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>31.8728579876651</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>16.7887149739718</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>3.4158851637137602</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>32.5113650951822</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>35.938565071048103</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>27.1789992050759</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>25.472389400030998</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>33.567922393364597</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>19.654930563763202</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>41.784541170803799</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>32.548688551204499</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>27.396055206859799</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>5.1754216138273303</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>16.875262110478801</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>41.482029396214401</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>33.308014192003199</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>27.152690081333301</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>5.1874853229761504</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>38.4251948664065</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>26.0279743207876</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>29.157019266060001</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>11.3795926768719</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>5.8816195617035296</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>36.764826725620303</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>39.046787046288003</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>32.0963669939743</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>38.436964274180198</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>16.2831134603903</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>38.056307441749702</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>32.954977899887901</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>27.862593829881899</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>39.229165108517599</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>31.5636589024733</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>40.796826161138704</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>5.1920138658689901</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>39.378153514200598</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>30.5292960325576</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>8.8524906358119502</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>21.040879645472</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>36.946508846378201</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>26.0498762420461</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>31.882914787070199</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>26.2705238363415</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>3.9636877342602701</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>39.577065753170999</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>15.4290775069143</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>18.781952024196698</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>36.4294228813893</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>7.9917495145392099</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>2.6801011565293398</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>26.123406628855101</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>12.528648124637</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>41.186705194319899</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>7.6987981855624197</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>22.1740755489324</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>40.591951515784601</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>42.421660766838102</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>27.170923330985801</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>25.311828247084399</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>3.70610248940203</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>2.7813397190150599</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>2.8212208508652798</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>26.9213431823392</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>30.2393378752692</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>33.502404527465501</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>16.983239152461501</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>11.517674181747299</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>38.200513864172002</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>44.334173977289403</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>20.567095190037801</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>42.484895434042201</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>4.7294074200970897</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>43.875562831239598</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>37.953963685445501</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>25.970246296796201</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>33.830057411573797</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>17.995629298223101</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>35.861893658151203</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>44.4983440567879</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>14.5626345236026</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>5.2525303607010398</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>43.007754078743297</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>8.08143250311009</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>44.247382996536203</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>9.4583732100653908</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>43.096409688111301</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>14.802254915195</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>3.8790961278565899</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>35.549051068213899</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>40.608472432803303</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>40.245079600567998</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>17.039332482868801</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>18.497324462091498</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>6.2489462305121704</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>35.003575243737998</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>29.327550621288001</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>21.3257213517543</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>31.504729745347099</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>22.311110727687598</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>3.5660498895859201</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>8.6994046361305504</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>11.164726888564701</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>6.4135612742236301</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>38.217347232918598</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>29.8230911173879</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>7.95475046441726</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>22.1212791408195</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>19.831002029286399</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>41.390522052943403</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>11.4076373320102</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>6.9305877218489798</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>38.956555489989</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>34.481467233535703</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>11.5036066821612</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>26.417827780947601</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>11.106080409648399</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>43.8225658255936</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>33.536766642110599</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>39.080487113965198</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>6.5371601443158101</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>8.4185103516655904</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>40.655290183828299</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>22.161828319741002</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>12.597205484362499</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>4.2019332501610904</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>25.943625918930799</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>14.088529871415099</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>7.3722960025422104</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>31.920907392006399</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>9.5999608120575193</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>38.555717592340002</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>28.318929895412801</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>15.290070619957699</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>10.069664514081399</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>3.4209797247568901</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>8.9762950023115096</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>13.971620047634101</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>10.944085465180599</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>21.047515329323002</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>13.3462446047158</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>12.8702067278572</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>8.5904672308227905</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>15.322028940740299</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>38.992863197582999</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>10.3538540327955</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>18.601868334428399</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>16.6544099053304</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>30.652907617688399</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>25.889392090287199</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>41.772788563637597</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>27.710334439453899</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>10.5236135193328</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>29.641106906442499</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>4.4937690267486099</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>29.421980217573601</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>4.3402549973456601</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>31.246665132307498</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>37.638977897125102</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>37.8209622297558</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>13.097571467650299</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>19.9999555991485</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>21.027997024736901</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>26.609559183078101</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>39.442407313128797</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>17.042350938350399</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>5.1255582811046301</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>22.133548944513802</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>10.2253911539109</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>13.055495152452099</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>39.817349167993797</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>11.909997117451599</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>33.637012024142997</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>8.9648689966415596</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>36.715602820310899</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>22.3119607831194</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>30.8613308731594</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>9.5863906510846597</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>21.944792995648001</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>27.6033474728603</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>32.090709732585402</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>5.7747976659709597</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>30.381911558758699</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>40.4799117244999</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>28.621822675643202</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>28.267962257913101</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>12.4295280840371</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>10.208552260805</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>30.2577256095216</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>16.354040953321</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>14.014018947052</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>9.8594487371946595</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>42.563883886168703</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>10.508785943445201</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>28.492491249254499</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>7.7589472591274102</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>18.9507842423595</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>39.393445045889102</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>15.644135996863399</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>32.781955757301503</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>12.8963201334467</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>26.0007628898809</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>19.717949298540798</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>42.590858352734003</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>11.317097527347601</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>30.534207168435302</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>17.5649665944199</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>20.199895702398901</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>18.434785549133501</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>4.6662557503440398</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>31.506945529115299</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>32.256707709964303</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>28.693729351405999</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>13.0814573022886</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>40.489769158996502</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>2.5959698207577699</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>18.563466070775299</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>31.952708952161601</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>31.5312564894456</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>36.786898823321799</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>10.759697359739899</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>17.494188072103402</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>37.270569920689297</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>13.807494925686401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$B$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>1.1666662355638899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.21687579171821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0384233593742804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.823750857827401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.9831968382160099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.79632914369079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.12923106974098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3550364251065501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5375595776011703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.3186811610023899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5789631312763497</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.08589358409158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.70248243447669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0354020332787899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1032201345085797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.7202973168588196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4859199396004898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9384547161456496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4370013168832401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.1812633048438101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.375927599994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.9159690792472803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.14309133451972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.75955706137304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.13387845459064</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0179197016612296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.5741292632093504</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.30374490793655</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3876784648004401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.00671584863841</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.4955471952322501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.71057535802791705</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.2589451800759202</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.1501694835075398</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9394864108682199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.5067993852605994E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1641611077244303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.7658169769382499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.6334375617424497</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7553430183034902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.5108565734875898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3516876770095303</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.7113294905391</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4206663853150299</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-7.3675593871550502</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9099423737468699</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4726194170847506</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.2534125081847307</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.2904546321673296</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.7247344699439</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.2302092562092799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5920737800009599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.91628691369732</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.22482126233432</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.3915321868986799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6932535062412697</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-8.3739206188101196</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.0700812468293002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8242981414372101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.4695927735624403</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.371528138046477</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.6078315678284598</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.0625464934062601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.3259016643401997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.6949567081198298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-5.0767102101013002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.4809894819274301</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.74137084428886</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3731923456190702</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.19692427269578799</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.5392777385129099</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.17781535539107901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-9.4459733467436795</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-6.7157169121674301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.0454519924521009</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.61075361797293</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.1565644625703708</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.2916982357789299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-8.8576794761698601</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.8340158362170702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.3542397465852301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-8.5436216932897402</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.9659610806282597</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.5102672735910794</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-4.5612840775202699</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-6.0854759605472601</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-9.1069028934076997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.9102188820108799</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.48112986925214302</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-8.7431987154829702</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.0872692872686098</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.4638597472601198</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.7585837151641606</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4063346248742503</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.7766677750233599</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.3454056085903803</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-9.6169544363643098</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-7.8457453236724604</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-4.5087227149362397</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.06827193825064</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.7138769106303</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.9892303107939999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.578676511033001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.014493600186499</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.7012144956505502</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.57836691961238</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.7713811562839199</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-2.2443789634618199</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.89954480187494701</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-7.2118398502657497</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.17506994007968</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.0800168058292803</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.4877951944699106</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.37819462232933</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-6.0918699616082002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.3562224719801099</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.0612283359341701</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.164635820775831</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-6.3855741872429004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.6849739018994501</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.8750044826160206</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.38042351337803199</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11.101653140976101</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-6.8933723553220903</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.25610640326381201</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.934021330431399</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.7779381021002401</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-9.5965008386840793</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.0052870824042799</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-3.94887307588542</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.00725265595573</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.3286078120891993</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.7070631883324197</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-8.4246416316405401</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.8494137187779103</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-3.6831798775619902</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.9123715611095502</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.20690386644196</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-6.2703257719704997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.9579966792749204</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.6338073400282997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.9111875536632299</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-3.8737669625918998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-7.1482410235718499</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.25798046916019102</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-9.5223070928618299</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.2909269805692203</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-6.5757927632565796</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.22543882269406</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.3223588476656793</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-2.3312597843131102</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-8.5439561880892292</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.4832553275448701</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10.0614091097583</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.6058112672681499</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-5.3100305611700502</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.50751948832871796</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-3.9993921681850102</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.2722924765147798</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-5.4053643023759301</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.0055938709741401</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-5.70257737986429</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.3966735156927701</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-7.7752179642693804</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.7562356677783599</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-2.66467945941536</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-2.6210847500199801</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.5362825547646901</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-8.9074170128041708</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.5361833703553902</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-6.7315285387290302</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-7.1324071977220003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-6.8602942521093802</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-5.8492123723951197</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-2.5490923739181599</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.2188475602094999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.17103421409624</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8.2495027253216904</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-6.1238900896095503</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-4.5318745671837704</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-8.7326137129979209</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-4.4256612353774898</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.8959430179560002</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-2.92246225166256</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.9106893557435698</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.7809359202481101</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-9.0781670097410991</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>10.213029880891501</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-6.3615394433673398</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-7.9318768941920998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-7.2382480319647602</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-1.0471033609188101</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10.5858415971121</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.6655475272581999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-9.3550440776733801</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.92581113040597</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10.2455472898874</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-9.0007549942822198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.7373893528730902</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.8751841434791301</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>7.1343932840544904</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-6.2325631967183099</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>9.3051342723005099</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-1.21977517605944</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.7762469491459401</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-3.18507026572424</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-8.34727710850545</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.0001360845365102</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-4.81839671861837</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5.2970127082001497</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.2213153450232408</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-7.0626527091493401</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>8.3700879799718901</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-3.6875011808458602</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-4.6134447960822698</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.18570168033912</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.69684022324072</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.765458020028699</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.7087120875634598</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.4287582150526799</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-4.5322180165519601</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.1910181207011101</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.8844049144681296</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.10935748072463</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>8.6191703856510191</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-5.0935912472499396</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-5.6961005638721298</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-0.49795215403856802</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-3.4477420534763299</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5.2943230757203397</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-4.6539974530536998</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-6.5772032057934</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-5.2676170724120697</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-5.65885562378062</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-7.85804031355927</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-6.2274787620970598</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.83656901821755</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-6.2765072515043299</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6.8636519654834798</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>5.5636405396641004</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-2.5708101539805801</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-4.4498253513682204</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>10.5997526386095</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-5.5271969777739196</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8.6164834786462094</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.23145875611238</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-3.7456020477225702</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-2.1968266438564701</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.6997386161367198E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-8.7373935664476807</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>9.7468926256757094</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-6.65935360499933</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>10.4803897240549</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-0.66213746474805801</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>10.6466421755244</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.3927620416068101</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-7.6638889317442001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-2.61668596259396</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-4.2675673856837504</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.45266305248546</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.25447077193492</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>6.9633957126502501</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-3.8839806506279699</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-7.5586678552072</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.7770282356995999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>8.8281991764828192</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-2.0913151745993002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-3.5289027952649801</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.2272062737846201</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3.8212201703065598</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-9.4066578823189708</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.4165594801674399</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5.41900831255436</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-1.2387561796133399</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>4.32775676589669</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>7.25760960837545</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-0.5000882134104</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-9.01433465408412</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8.6703569856891001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.8678381118304399</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.9017015950326801</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-6.3116388726789197</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.2987488152295201</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9.7240350607823203</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>4.2463534973648303</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9.4353417172686207</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-0.49357662882447401</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>10.8265511800623</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.86937976196739</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9.6865589691757599</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-4.6952764918914003</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4.6682865497914996</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.299632410420892</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.14577435764123</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-0.63051773426573898</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.4499982702262999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-2.87554695878439</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-3.4145201822325402</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>5.2368509764695901</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.33017061353480398</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-3.3320309172168598</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-9.2609452660358205</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-8.8405969329581602</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-7.9404776405085702</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.9303159736772502</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-6.2154939346627804</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.38973033709724</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>10.7222555599133</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>6.3275096149522296</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-8.3223924491019101</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-7.2539207965108297</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.9337961286405698</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.91312302148852</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4.2119127535222098</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6.39035190822855</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>5.76420670227236</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3.9830838934953898</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-7.2598865942478996</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-1.92770335732325</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>4.6361269192733703</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-6.1917343178200603</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-0.94124447728040095</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-6.8651798933589303</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>10.4140331221874</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-7.0834792774201496</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-1.55126156122862</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>8.2631388966988109</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-6.2488403128606702</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-2.1291465994033998</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3.1488148305466099</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-5.5357902718628598</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>10.7702681182656</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-2.3201331106198002</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4.4517930590798196</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-7.11800221696791</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-0.116610285081858</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1.18751775334323</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-8.4259071683644002</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>5.7852112819148198</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>3.9927015728597901</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>5.3655861007901597</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-2.6270207557695402</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-7.0354672438584398</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4.62397426702067</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-2.6869647040104501</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-6.5863391362683297</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-1.3841080325013499</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>4.1595456838519604</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-2.0300333534983102</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-7.1891168578137803</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-0.37316682776985499</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-2.04097836012558</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3.9424061723663</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-4.3240617746347398</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-2.42567319211678</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-7.6650183723824501</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-6.6559145815774396</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-7.5567432782821804</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.8639389952733401</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-8.2127893784527402</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-5.6573005276672204</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>4.04216617919933</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>4.02859461886049</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3.1411734155819097E-2</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>5.48741706319906</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-8.7582584406364405E-2</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-4.1086715211532301</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>8.5343063429004005</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-2.6342453222022901</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-6.7927462031942296</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.7028375157485001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>8.8728684550022798</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-1.65412035229767</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>9.9633274262770097</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-7.6368133986339402</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-0.52023829675101496</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-7.0986326391436201</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-5.2102422273853604</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>10.6749526557303</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-0.50066763411266602</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-0.69913350567773702</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>4.6338368079884296</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>8.3978983529384301</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-3.7906494064127201</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-1.1607941496359</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-9.5721908426286895</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>6.6572118192874497</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.3473032039445501</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-6.5018548156025702</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-4.6718361610863104</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2.26687362001991</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>8.2450566404008008</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>10.7147955329242</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>6.5493149321023996</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>7.4121821793623903</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>4.90132974113145</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2.5974986365074599</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-4.7342864088008296</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>6.2634607469093</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-1.0518836088028101</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>8.9504661532275591</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>6.8773011337422103</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>10.843481997885901</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-2.0911935119492102</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-3.5106224396486501</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>3.36005232290622</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-7.3859882750217798</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>6.5147737213147403</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>6.8279138090870299</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>4.2982388514785903</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>4.1049673527923396</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-1.20435223288287</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>6.9055553061174697</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.16212202519578</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.57773703550638</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>3.0574062871422001</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-8.6728164449831198</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-3.2036323290536002</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>7.7802525419779602</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>5.8916937285072297</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2.7052897459745302</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>7.8052643518807896</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>8.5376175409728408</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>-5.9253213302161702</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-2.76318793330474</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-3.4053278946737602</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-6.2778142800835299</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-0.21571198236175501</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-6.9213628764511199</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>8.8555493338546807</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>4.2348375773360596</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>8.2484178463495095</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>3.4847967733899599</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>-8.6054942630584694</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.71250975972591</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>-1.49536259230421</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-2.9725101806799699</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>5.4895299480387001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2.7676654839439601</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2.2699718475505501</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-4.7366672197074902</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>-7.1508847829435904</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>-8.9728183225533407</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>10.840999852617401</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-0.57220524372741299</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-3.3165265476536998</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-1.6948741711409601</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>-3.82644979908941</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>8.9392816924191099</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>-5.83984608467697</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>8.1111605875714705</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>9.0940542032519307</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>6.16547698683899</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>-9.2551223411674695</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>10.376331959445</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>-6.4103506568502002</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-1.7908247759062601</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-6.4447681735806102</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-2.80211777351701</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-7.4849401778526703</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>8.5292728048771203</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-8.3799594445957997</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-7.0012577336358204</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>3.02577460439952</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>9.1611628380292895</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-1.2919476404939001</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>8.3106129652305505</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>5.5128928346141901</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-7.9861324105725204</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.76076878941689</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>9.5063910189492802</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>-3.7090978996687598</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>-5.2824117465874201</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>9.0228930262684592</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>-7.9715930427269699</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>-1.04506881757807</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>3.34408281551945</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>-2.7304233179645401</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>-7.2942353588085203</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>5.9614947727650698</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>6.3668097482874204</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>-1.6177406258047</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>4.2007398037091797</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>-0.48238288507744298</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>-0.45394674048169298</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>-2.8405173851518501</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>-3.3436014044606601</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>-7.5052763305935004</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>-4.7069308610614797</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>-3.1434352558517</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>6.6362864797267402</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>-5.52285632517951</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>-9.4109398380107496</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>4.6847529334354903</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-3.9326212732742998</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>-5.2032843512825799</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-6.5006755358613999</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>-2.9803620949473402</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>5.4183183870689202</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>10.9036694191766</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>-0.77171172966744905</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>-0.686485644656741</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>-6.3523751872320497</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>3.7654457087748101</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>-7.4890913581522698</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>-4.9461998459963299</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>7.2447126507230903</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>7.28379749561301</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-9.0704730825331108</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.18176187255614901</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>2.2890005541708902</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>6.0759236082629604</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-4.15779122291974</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>5.4692226325849003</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0.17894667112305901</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>-2.9711917602754299</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>3.3674616566837301</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>8.7605147721806897</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>-6.2629356844810999</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>-0.26230122735325101</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>9.41824639837135</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>10.4701713166356</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>-2.4001973811852402</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>-1.20885253930923</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1.26907014089561</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>2.3911687674592201</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>-1.7502391531291199</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>8.3694668641763794</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>3.10388460885597E-2</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>8.1218345293629692</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>-2.7315034968986698</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>-9.4384777303856495</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>2.03635520756308</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>6.24639973052681</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>-4.1432444110065996</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>8.9421618738253805</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>-9.0054601000802208</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>-2.6060690669194302</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.140231970307478</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>10.7106034813481</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>5.1037727164033804</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>9.5486755042362592</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>8.6728952198700302</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>7.7831253805172498</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-0.330282338242808</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>10.291138175816</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-0.218262780179204</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>-0.24082997745024801</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-5.8094212965629701</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>6.0790960024710703</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-3.5837457572399201</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>4.1512803188976601</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>5.43492422687559</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>-6.8533210358763004</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>1.9172926615453001</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>-9.0379095426388503</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-8.1629878642132194</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>9.5806636302184494</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>5.0492777723278</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>-4.0119758060780297</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>4.02457009574624</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>-6.0139354923747401</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>-5.5451927650286796</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>3.2055249009973901</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-3.1768993868003501</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>3.07532649295459</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>-7.2963856238202398</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>-2.37874632528314</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-0.86477607938296297</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>-9.5277683898290295</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>3.0904564209679002</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>6.2017100542828398</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>-7.2946392688311699</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>1.16131074693051</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>6.1229572688441198</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>-3.7381419794298401</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>-7.8280876508845001</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>-3.8196415192507098</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>-0.48586117354411001</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>-5.84784249413</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>4.18394210253655</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>8.2768068598315896</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>-5.9486718374805898</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>4.54767318278489</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>-0.29339980745503802</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>-2.2151409020656998</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>-8.0738206653485491</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>-5.9139147513960104</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>-7.1332641523584899</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>8.4061734080047898</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>1.6473183544991701</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>-5.4927189360278899</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>-9.2565793471264897</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>5.9317538011341702</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>2.4000512192235002</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>9.96351010014153</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>9.8882354930974206</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>-2.8000891712881</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>-3.8308328039557802</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>1.47970971418464</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>4.89382126827888</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>-0.47482692314335001</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>2.5175338306979098</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>5.5346869914316699</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>-8.7888465339683304</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>1.8808284745958499</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>-5.6611790709781999</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>-5.5284165039289599</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>7.2829402743883698</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>-4.12045544343425</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>-1.87851211984457</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>6.7198806997540403</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>-9.4862242930463694</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>-3.0767141762506398</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>-3.1765750230804799</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>-7.7226701462942096</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>2.9019396580663699</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>-1.44625594711845</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>-5.1214515485952097</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>4.5620059522677296</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>3.0825853670973702</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>5.0535499249861804</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>-4.9772189532978803</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>9.13132812905212</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>8.0958974892168598</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>6.0883098486357898</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>-7.2565238124034499</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>-6.8020815045102996</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>9.3633748349809398</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>-8.8347060433779792</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>5.7784238162296004</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>7.2366761160621296E-2</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>-6.3081461730838102</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>-8.5341831986211094</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>9.7977598621107997</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>-4.47945586098517</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>-6.6696702918774804</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>3.7796158999429599</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>6.2361206041886001</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>-3.2973697914141402</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>-3.7779938416292702</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>5.6413304306030403</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>1.5311024482253399</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>-4.6210779515288802</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>-5.5651552799759596</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>-1.0796639894956499</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>-1.1516163985150301</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>1.8439685082630499</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>2.3198505934085798</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>4.2219089603672302</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>-0.28544304648907598</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>-3.7156718321949902</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>-6.7495461042970399</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>-1.6176219698099801</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>4.1958671344690401</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>-3.93367838322721</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>-2.6161281563492</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>-2.4820671729238701</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>8.8000900351167104</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>-6.8591691477487</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>4.8159032269038002</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>-3.3999638110165198</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>5.70880380899359</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>8.5783356222204503</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>4.0948207869348199</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>5.1258813470740101</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>3.5854554709033399</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>3.3092859613319101</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>7.11724998707993</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>-7.6460506466920997</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>-0.53996574533271102</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>9.5446508499615597</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>7.2825624945196799</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>9.3312738976908491</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>6.2801454015445</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>9.5718313082793003</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>-8.0597775991305003</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>-4.4786309761047596</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>5.0032758528901899</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>-3.3274411136969899</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>-2.5765133877369899</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>6.7331905702479702</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>-4.0502996811946703</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>-4.8855307615275798</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>-3.6200977161566601</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>-1.36806862361214</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>6.3279610595906899</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>-2.6059108991334399</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>8.6037683779124805</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>-4.9459759013190299</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>7.7979234906599304</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>10.8219083513738</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>-1.9324428151642701</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>-5.6951717815779697</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>1.93207356539011</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>4.7827481460553196</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>-2.56335428884862</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>-2.7912876620659999</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>-2.42174368216092</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>4.0298904851132198</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>-5.0800806019884801</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>-5.7841788947662103</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>-2.6556270889790299</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>-1.8744430627531199</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>9.48015226914357</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>-7.6097157730472302</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>-1.9795481976873499</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>-3.0254236767150999</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>-5.6529510113542498</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>-6.8561428216462996</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>9.6101605292818899</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>-5.9539268432723702</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>-6.2661431048401797</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>-6.3443563680200299</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>3.92386103984169</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>4.6182333181294197</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>7.0101381954484498</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>-7.0012668254162902</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>3.7780865651384099</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>-5.1959528800348096</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>4.6372810831292401</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>-7.2723460276254404</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>-4.8480033067577404</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>-7.6334163808073496</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>-6.7320695400661199</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>9.8240313544050704</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>-9.4726752334320299</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>10.561159783998299</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>0.18419696060617899</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>-6.7660357269670302</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>-0.36895597953356501</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>-2.9617931624503302</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>-6.92816563783422</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>2.0593494619997998</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>-5.8528003350990403</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>8.9711919639822799</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>1.3825577881576501</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>-7.9970910551461598</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.28497615117511499</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>4.7787694086909696</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>2.7226640325338001</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>-5.6085725019758499</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>5.5545285800046704</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>-4.2284558778839099</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>-8.1071368779223594</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>10.9300259620091</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>3.40496018719656</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>-0.71137758727965605</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>-6.0417384771947704</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>1.9963778491628199</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>2.4621800433136101</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>8.4119400191040992</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0.14282816391795</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>-2.4139428275282402</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>5.8088119491069499</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>-6.6326133457924099</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>9.7834203405591609</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>-2.09075672646697</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>1.5070272281160499</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>4.0948952066197597</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>8.62195665281393</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>10.694160149990401</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>7.4841108568517898</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>-8.5521872345328998</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>7.96669886590694</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>-0.76784329641103</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>10.624589993760299</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>-1.53912132051482</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>9.1901414733616704</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>-1.37211158229954</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>-6.7368949469775901</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>1.2694223402557601</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>-5.2546223033131598</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>6.9894957215926903</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>-9.4609562735898205</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>5.7720637266406101</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>4.8120611254171397</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>-8.2473979095521006</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>1.3435481462505201</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>7.8780250833330401</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>-6.4847704588132897</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>-4.8322109135038298</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>-9.5404451118326001</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>-1.5418848296401499</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>-1.75403526184688</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>1.50721323828238</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>-8.9474104033302702</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>-5.3900858460413401</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>-2.6163604439246599</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>9.4658317666510392</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>9.0603935856244497</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>-6.2308955107891997</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>-4.4589586451311503</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>-8.8963124014815893</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>3.8021455359156699</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>-1.89413252160137</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>-7.8635939366635297</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>-1.32084388504971</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>1.97730680814368</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>1.80889113808067</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>-5.7549663587824904</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>-7.7061172986128499</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>-5.0829355044610596</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>-6.4559757993398499</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>5.0343735884663303</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>-5.1592787218511997</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>-7.0705479796433002</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>-8.1513180347852394</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>-6.6684746409057798</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>-7.8837160843660801</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>-0.38891966086115998</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>1.5014588098122801</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>-8.46618701812897</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>-1.7293749880282001</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>3.3458001813795399</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>11.022496854950401</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>-9.6385609232865601</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>-2.7502369243529001</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>-3.42970753600531</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>-6.6865612861965804</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>9.5778722096618196</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>-3.0420085712080098</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>1.3052964494436201</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>2.0520895336519498</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>-7.4858838436179402</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>8.2533065259704106</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>5.6364202620978601</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>-5.5574348315096502</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>3.3759129859366799</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>-8.0309399545187006</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>3.7177214955289699</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>2.69362703196808</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>-6.8526592887313802</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>-4.1629168510307304</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>-8.0547791731789893</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>-3.7059734654673901</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>10.2676991014441</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>7.6926867791180698</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>1.5444960896216999</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>-2.07807145583529</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>-7.2416139247785702</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>-3.8652888341255499E-2</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>2.084805161791</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>1.9442775994746999</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>-5.31019478618623</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>-9.1100359572929097</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>2.9209300797195801</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>-5.3982084627594</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>5.4935519094069498</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>-2.3762759847817598</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>-7.5935979935897802</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>-2.94377750391115</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>-8.6224075657413906</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>10.2230918716243</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>-8.0615939420588401</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>-6.59443680625672</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>3.5100039803877299</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>9.1640718584199199</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>0.13960815811131799</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>11.0984390960695</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>-9.4438298728557193</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>4.5056137612663996</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>-6.2080210950410599</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>7.3753322137978303</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>6.4540936047367703</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>-8.3460591767755297</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>-9.3943902604601295</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>0.17305973487044299</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>4.8320588075561304</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>4.7210465758187601</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>4.4341054751341504</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>-9.3520693474870704</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>-4.5504789313866896</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>4.5407170692236898</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>-8.4511700702889208</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>1.24445844596849</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>7.5544776720651301</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>4.0064175507292896</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>6.7541258370169199</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>5.7413646747915896</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>-9.0310578724914006</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>-6.3867520633441499</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>9.16643836925277</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>1.9819733076618899</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>2.0688931519824001</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>-6.06265117865658</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>6.20834569163073</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>4.1708103280767297</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>-3.7562699835603199</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>-6.65606318037121</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>5.5591899150534703</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>-1.1236274417027201</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>1.6831099373222</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>-4.3263500117926101</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>-9.4242913118780205</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>-0.99151294167284099</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>10.7029179701185</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>1.2898992187328999</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>-4.3392408844990404</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>5.9491480023309302</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>9.7222841796777395</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>6.7100766975863797</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>-2.5679096560326502</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>7.6986336076102999</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>10.120730135144001</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>-0.63978212615859997</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>6.7828748649577202</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>-6.2054431108070904</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>-4.4722582639306498</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>7.5857048919456496</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>7.1175240967793698</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>3.7154338894389798</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>9.1416647506094595</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>3.8709475828126898</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>9.7242996487958706</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>2.1984717380825001</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>4.2057596074241896</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>10.657400992177999</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>4.4090891000441603</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>7.1708210443300002</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>-3.71181047390351</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>6.5458173392038299</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>6.8528325493477702</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>5.6613755540453496</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>-3.1198660156277498</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>-6.5592179872252698</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>-4.4549440720112301</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>-2.8136200128617399</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>6.01564660671648</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>-1.3189610745665601</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>5.1232426714021404</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>-6.3263004869308999</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>2.8570801310569598</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>-8.3069495916922804</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>-0.55625837455796401</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>-5.1516126628086001</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>8.1950944003472799</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>3.6407634418630002</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>8.9016320837888205</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>-2.70344154354934</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>-1.9687665770851299</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>8.0530920647011897</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>9.6941547765051705</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>3.6457832550676899</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>1.8028392098094299</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>11.0287810316222</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>-2.0014449870939499</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>3.5624642373742001</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>-3.2106351213560198</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>4.4960124304602296</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>-3.9027695305809602</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>1.46015413944432</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>-9.3350063358048807</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>5.8629098901048602</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>5.6733089841402498</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>-2.0697347822247698</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>-7.7115916234697197</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>3.86989296084319</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>-2.27285493059675</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>-5.2917069937464802</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>-1.3569575563610501</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>-0.165050084675751</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>2.25853722555035</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>8.9037686064175592</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>-1.58801755894682</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>2.7776732454874402</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>2.02681844824113</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>10.669322533236199</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>-3.0429367452773599</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>10.007152157026599</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>-2.0528134616113198</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>6.2874658130106198</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>9.1501467186809506</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>-4.2573139274321496</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>5.90286967322481</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>-4.5325588851893102</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>10.447351887101499</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>-3.5179566164434899</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>7.9613967457511903</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>-3.8881953623353702</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>9.1480418118519005</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>-3.3873396116674699</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>5.4528822105633701</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>3.4742618182867</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>10.9452917298747</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>2.4261650968736999</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>-0.374760764421393</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>-4.17893086596212</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>-8.1157614823889492</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>5.2171303103567297</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>0.179033388127882</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>10.131569971023101</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>3.10114453783192</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>-7.1539858633397699</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>-8.3790207276505893</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>-6.3201481464951801</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>1.27423439836411</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>5.55708972625155</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>-1.75589653257913</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>7.5868348106799104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-793F-4FF4-B40B-2DFEDEA321DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1615879103"/>
+        <c:axId val="1615877855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1615879103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615877855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1615877855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1615879103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>455545</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,11 +7209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:B1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8355,5 +15224,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>